--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1,224 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>机器人添加时间</t>
-  </si>
-  <si>
-    <t>附件地址或文章所在地</t>
-  </si>
-  <si>
-    <t>快照</t>
-  </si>
-  <si>
-    <t>错敏词</t>
-  </si>
-  <si>
-    <t>推荐词</t>
-  </si>
-  <si>
-    <t>附件标题</t>
-  </si>
-  <si>
-    <t>父页面地址</t>
-  </si>
-  <si>
-    <t>父页面标题</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -518,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,7 +871,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -927,7 +880,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -940,11 +893,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1196,44 +1212,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>机器人添加时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>附件地址或文章所在地</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>快照</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>错敏词</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>推荐词</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>附件标题</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>父页面地址</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>父页面标题</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:30</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/4D/rBUtImeNomuAfVBDAAGaAEOVMPI433.xls</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c4f2741a3a7b4b0987cdd5c6aa9dd0c4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>养老养老保险</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>养老保险</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2021年部门预算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598111/13767925.html</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>巴中市南江生态环境局2021年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-17 14:31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/xxgk/jbxxgk/jcygk/jcjg/13982164.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6b70b971aa0542888bb2bd05d226240a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>不安全隐患</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>安全隐患</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发《南江县村镇供水工程运行管理办法》的通知</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/xxgk/jbxxgk/index.html</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>基础信息公开</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1310,44 +1310,380 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2025-02-17 14:31</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/xxgk/jbxxgk/jcygk/jcjg/13982164.html</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6b70b971aa0542888bb2bd05d226240a&amp;type=0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>不安全隐患</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>安全隐患</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>南江县人民政府办公室关于印发《南江县村镇供水工程运行管理办法》的通知</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/xxgk/jbxxgk/index.html</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>基础信息公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:02</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/78/rBUtIme0NMuAZ8UFAFFQXSPLjTI92.docx</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=61e5773eb0b940deb16aa9cad727ef2f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境管理保护条例》</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>《建设项目环境保护管理条例》</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>宜南食品产业园-清酒生产建设项目环境影响报告表-公示本.docx</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598111/13983030.html</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>关于2025年2月18日受理建设项目环评文件的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19 09:02</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/78/rBUtIme0NMuAZ8UFAFFQXSPLjTI92.docx</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=540cc8063a584ca782ee6df8196aad26&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>四川省省委</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>四川省委</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>宜南食品产业园-清酒生产建设项目环境影响报告表-公示本.docx</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598111/13983030.html</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>关于2025年2月18日受理建设项目环评文件的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:53</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599231/13983168.html</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3718f279f3c44bd980b2a43e00785a2a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国信访工作条例</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>信访工作条例</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599231?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>石滩镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:12</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/bmdt/13842040.html</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7c044387be044bad8bcf9c4984cfbffe&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>区生态环保局</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>区生态环境局</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>审计局：四举措开展生态环保审计</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/column/6788631?pageIndex=70</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:12</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/bmdt/13842040.html</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5b88b4fded7046d7806fcbda3f9c0a9b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>区生态环保局</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>区生态环境局</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>审计局：四举措开展生态环保审计</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/column/6788631?pageIndex=70</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>翻页</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:12</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598911/13871036.html</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=20ab7af9d0674e48bb1a6bae11967623&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>高桥镇2022年度部门整体支出绩效评价的报告</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598911?type=4&amp;action=list&amp;nav=2&amp;sub=2&amp;catId=6716031</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>预算/决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:30</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599051/13596061.html</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dce9fc605d43485098fa67212d8f909d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>于部</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>干部</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>南江县天池镇主要职责、领导简介和机构设置</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599051?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6715981</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>机关简介</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-20 14:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599051/13596061.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2cbfc6159b4c469b86b4068454a9b0c7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>于部</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>干部</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>南江县天池镇主要职责、领导简介和机构设置</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599051?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6715981</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>机关简介</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1646,44 +1646,254 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>2025-02-20 14:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/6599051/13596061.html</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2cbfc6159b4c469b86b4068454a9b0c7&amp;type=0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>于部</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>干部</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>南江县天池镇主要职责、领导简介和机构设置</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/column/6599051?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6715981</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>机关简介</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599171/13771468.html</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a382a06abe26418b85cec8557937fe31&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>南江县赶场镇人民政府部门整体支出绩效评价报告</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599171?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598691/13983430.html</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=546d3c7a05404733a111afb56a7f6dba&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>“12.4国家宪法日”</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>南江县沙河镇人民政关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598691?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>沙河镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598691/13983430.html</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5181b3a6e52c4d36a109f6efd0785bb8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>“3.15国际消费者权益日”</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>“3·15”国际消费者权益日</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>南江县沙河镇人民政关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598691?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>沙河镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598051/13983433.html</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2d53a3ed787741d3a6101a422c97f702&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>厉害关系</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>利害关系</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>南江县市场监督管理局发布“春雷行动2025”典型案例</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598051?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6716361</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>市场监督管理局公示公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-21 09:03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598671/13398651.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c2e5266e897a43809b20c84290d02a27&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>中共南江县委统战部2020年整体支出绩效评价报告</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598671?type=4&amp;catId=6715751&amp;action=list&amp;pageIndex=1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>预算/决算</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1856,44 +1856,118 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>2025-02-21 09:03</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/6598671/13398651.html</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c2e5266e897a43809b20c84290d02a27&amp;type=0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>“三公经费”</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
         <is>
           <t>“三公”经费</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>中共南江县委统战部2020年整体支出绩效评价报告</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/column/6598671?type=4&amp;catId=6715751&amp;action=list&amp;pageIndex=1</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="1" t="inlineStr">
         <is>
           <t>预算/决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:44</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598671/13398631.html</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=83d6c6bb2b9644288cd76ec0c7d86a16&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>南江县妇女联合会2020年部门整体支出绩效评价报告</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598671?type=4&amp;catId=6715751&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-23 10:44</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598671/13398631.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e31251f9173e417fb6a8e46d7960727b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>南江县妇女联合会2020年部门整体支出绩效评价报告</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598671?type=4&amp;catId=6715751&amp;action=list</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -1935,39 +1935,760 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>2025-02-23 10:44</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/6598671/13398631.html</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e31251f9173e417fb6a8e46d7960727b&amp;type=0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>“三公经费”</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>“三公”经费</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>南江县妇女联合会2020年部门整体支出绩效评价报告</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/column/6598671?type=4&amp;catId=6715751&amp;action=list</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:34</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/xzdt/13983755.html</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=145828450c5b4019bf6c9f9cd0e2307e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>粮食安全“党政同责”</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>粮食安全党政同责</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>侯家镇：抓牢粮食安全，下好春耕备耕“先手棋”</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>南江县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 14:34</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/xzdt/13983755.html</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=82b165c1e8544df8a3a41f3907b2af13&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>粮食安全“党政同责”</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>粮食安全党政同责</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>侯家镇：抓牢粮食安全，下好春耕备耕“先手棋”</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>南江县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/njxfzzfcj/zhxx/13984174.html</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9012ba3da4f04773bb9215aa021e1bf8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>党的二十大、二十届二中和三中全会精神</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>南江县供销合作社联合社关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/njxfzzfcj/zhxx/index.html</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>年度报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/njxfzzfcj/zhxx/13984174.html</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=25ef7b91cf8b435586a991fedd6a7c08&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>党的二十大、二十届二中和三中全会精神</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>党的二十大和二十届二中、三中全会精神</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>南江县供销合作社联合社关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/njxfzzfcj/zhxx/index.html</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>年度报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598071/13984133.html</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2a95b8ee858d4fd1993d339fcbbb19bc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>中央生态环境保护督查</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>中央生态环境保护督察</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>南江县林业局关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598071?type=4&amp;action=list&amp;nav=2&amp;sub=7&amp;catId=6715951</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>林业局其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598191/13984129.html</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f6121928987e45459a177b1b194b0d2c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国土地管理办法</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>中华人民共和国土地管理法</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>南江县人民政府 关于《东榆单元大沙坝片区建设项目征地 补偿安置方案（征求意见稿）》的公告</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598191?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6715931</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>重大民生信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/article/13898815?type=1</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a716399f28a347eb96e5c21618ff3131&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>南江县发展和改革局 关于公开征求《关于南江县小型水库灌区农业用水价格有关事项的通知（征求意见稿）》意见的公告</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/zmhd/zjdc/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/article/13898815</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9242cc1dfa574edda105b9c80b79ed72&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>南江县发展和改革局 关于公开征求《关于南江县小型水库灌区农业用水价格有关事项的通知（征求意见稿）》意见的公告</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/zmhd/zjdc/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/article/13797957</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2f78b2effaff49e689119ae1f97daefd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>南江县发展和改革局关于面向社会公开征求《关于南江县井坝水库灌区农业用水价格的批复》意见的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/article/13797951?type=0</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ec52a70c6c174fddb465149f5b48f009&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>南江县发展和改革局关于面向社会公开征求《关于县城区继续实行非居民用水超定额累进加价制度的通知》意见的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/article/13797957?type=0&amp;result=1</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=313a720e71de47dc8aa650d2675c0368&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>南江县发展和改革局关于面向社会公开征求《关于南江县井坝水库灌区农业用水价格的批复》意见的公告</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/content/column/6788701?pageIndex=2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=bdb9ce74c73c475e9b4ba497e4d98dd0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=361ac2a592364b51928273777dcba1da&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4d4cb9b1cc664290956a48531dac3533&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fba64cec006d4505a1d40563bc679a08&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=aa32d74980df4a52ba1523ac68e43d2b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26 09:08</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13976834.html</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9b253100c65d4652b0f6ef71b6813a74&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>截至时间</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>截止时间</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于转发《巴中市经济和信息化局关于开展2024年度工程技术（系列）中、初级职称评审工作的通知》的通知</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598331?type=4&amp;action=list&amp;nav=2&amp;sub=0&amp;catId=6717327</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>经信局政策</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-02-26 14:37</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598911/13984244.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=08722e3e31c7470389a03bbd060a0128&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>《中华人民共和国保密法》</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>《中华人民共和国保守国家秘密法》</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>关于2024年度法治政府建设工作情况报告</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598911?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>高桥镇其他法定信息</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/网站改错记录.xlsx
@@ -1217,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -2651,44 +2651,884 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>2025-02-26 14:37</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/6598911/13984244.html</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=08722e3e31c7470389a03bbd060a0128&amp;type=0</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>《中华人民共和国保密法》</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>《中华人民共和国保守国家秘密法》</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>关于2024年度法治政府建设工作情况报告</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr">
         <is>
           <t>https://www.scnj.gov.cn/public/column/6598911?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" s="1" t="inlineStr">
         <is>
           <t>高桥镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:46</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598991/13984553.html</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7443d3e4f2fe441e92f9f24d332933b3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>4.15全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>“4·15”全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>正直镇2024年度法治政府建设工作情况</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598991?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>正直镇其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:46</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598511/13984563.html</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3f8d57a086e24507be86dac7cd33b60a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>深入贯彻党的二十大和党的二十届三中全会精神</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>深入贯彻党的二十大和二十届三中全会精神</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>南江县教育科技局关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598511?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6716341</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>教育科技局公示公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:46</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598511/13984563.html</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=86092b0aac1a4f789777e5c25335e1da&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>4.15国家安全教育日</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>“4·15”全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>南江县教育科技局关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598511?type=4&amp;action=list&amp;nav=2&amp;sub=1&amp;catId=6716341</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>教育科技局公示公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:50</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598411/13984494.html</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c25a603af0264444823b469a9924fdc4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>“12.4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598411?type=4&amp;action=list&amp;nav=2&amp;sub=7&amp;catId=6715951</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>应急局其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:50</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598871/13984608.html</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cf6ed22ae64c44d2ab7384af9f3040ce&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>“12.4国家宪法日”</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>“12·4”国家宪法日</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>云顶镇2024年度法治政府建设工作情况报告</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598871?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>云顶镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-28 08:51</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599291/13984519.html</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1347c29925bd44f0adafeebcf75ea208&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>4.15国家安全教育日</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>“4·15”全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>团结乡2024年度法治政府建设工作报告</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599291?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>团结乡其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 14:09</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13984685.html</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d67a866a01374086a18f6c54adfb910b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>依法依归</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>依法依规</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>南江县审计局关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598591?type=4&amp;action=list&amp;nav=2&amp;sub=6&amp;catId=6715951</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>审计局其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-03 08:44</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/rdgz/13984889.html</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=700d8a8e646d4e1392324e09c1e6f6cf&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>“专精特新”中小企业</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>专精特新中小企业</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>秀我中国｜超燃！新质生产力这一年</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>南江县人民政府</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/njxfzzfcj/zhxx/13985441.html</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=974cb634e2dd46298e3f9b463491b820&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>《中华人民共和国妇女权益保护法》</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>《中华人民共和国妇女权益保障法》</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>南江县就业服务管理局关于2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ywdt/ztzl/index.html</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>专题专栏</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:02</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599211/13985157.html</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9b5de47f5a6848c58293d2fcd5587da0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>行政执法“三项”制度</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>行政执法“三项制度”</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>南江县侯家镇2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599211?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>侯家镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:02</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599211/13985157.html</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e2f4bddb97a84276822898281e0cffd4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>4.15国家安全教育日</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>“4·15”全民国家安全教育日</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>南江县侯家镇2024年度法治政府建设工作情况的报告</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6599211?type=4&amp;action=list&amp;nav=2&amp;sub=5&amp;catId=6716091</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>侯家镇其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 09:02</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598751/13985153.html</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9fbab16f37a4a81b84791a39e97951b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>全面健身</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>全民健身</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>双流镇菩船社区多功能运动场建设项目已开工</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/column/6598751?type=4&amp;action=list&amp;nav=2&amp;sub=3&amp;catId=6716061</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>双流镇重大项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=40c37290081e4df49c2a4a4cf3addad1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=657940ec8d7e464ebd6a1550ba73a2f5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>百页窗</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>百叶窗</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d5fc825249c54cd283e0d46d5fb5d385&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fb4a733f59c24e21bea455d4e347054e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=01704ea33bdd46379cd25be75059c42b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d41c9a225d0d481198a61f80e8c7f1ad&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7123ec889eb44df4941e5c45c07609b5&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-03-07 09:13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/8C/rBUtImfJaOOAWKvbAAVSzmWbSUA67.xlsx</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=93942af947584a0cb0312923c830e6f0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>审计复核情况表（南江县城供水工程）.xlsx</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598591/13986036.html</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>南江县城供水工程（水质检测中心）工程结算审计复核情况公示</t>
         </is>
       </c>
     </row>
